--- a/data/trans_camb/CoTrAQ_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R-Clase-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.04596542528645</v>
+        <v>-18.2012569872218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-25.05767213111868</v>
+        <v>-24.5024926601895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.21317715359145</v>
+        <v>-19.5971446416611</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.740918199022836</v>
+        <v>-4.667222313643339</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.397169160218274</v>
+        <v>-7.064045675856454</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.960865659148567</v>
+        <v>-9.280618222437743</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2149785587981779</v>
+        <v>-0.2083807178081905</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2855136681603396</v>
+        <v>-0.2823447300671448</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2191922425578167</v>
+        <v>-0.2214671816824103</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.06733131078771599</v>
+        <v>-0.05664129199086643</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1039839926567208</v>
+        <v>-0.09201857389543469</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1066831204065947</v>
+        <v>-0.1084997912171113</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.67633575612402</v>
+        <v>-26.02029339741999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-28.18885819458698</v>
+        <v>-30.2582734432561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.22950498524649</v>
+        <v>-25.34224545311716</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-8.276470089634619</v>
+        <v>-9.1692135940187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.049589195561714</v>
+        <v>-8.459403768854079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.46523543874091</v>
+        <v>-11.42362540261954</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3233413244557053</v>
+        <v>-0.3267708592049224</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4046777664304948</v>
+        <v>-0.4246288273690657</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3420789196629797</v>
+        <v>-0.3383789434142019</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1112974650206988</v>
+        <v>-0.1243421777043838</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1038101140971868</v>
+        <v>-0.1444116482514737</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1682877369547389</v>
+        <v>-0.1661773771300532</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-20.23589537434973</v>
+        <v>-19.56557831103363</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.882451923327586</v>
+        <v>-10.03939611207537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.44610866600133</v>
+        <v>-15.66783031568652</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.560748171159127</v>
+        <v>-2.28624213856996</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.28304932362421</v>
+        <v>13.67744880913156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.8604281320951358</v>
+        <v>-1.615062672381803</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2512918840821635</v>
+        <v>-0.2460313884556752</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09011457629510496</v>
+        <v>-0.1157970201485305</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1899894435367383</v>
+        <v>-0.1929148974669502</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.04452662676667497</v>
+        <v>-0.03445313844472821</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1765909859461743</v>
+        <v>0.1755703691663014</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01195325840410887</v>
+        <v>-0.02157890581987936</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-23.12649440379769</v>
+        <v>-22.33260320738891</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-19.14895341017008</v>
+        <v>-19.33936383015503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.13903880939994</v>
+        <v>-19.17160731328485</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.205772796192985</v>
+        <v>-8.655314843131642</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.659935040754193</v>
+        <v>-3.716933079672057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-9.222300945365786</v>
+        <v>-9.200542302582134</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.367249521970656</v>
+        <v>-0.3570530309732446</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3111520597362871</v>
+        <v>-0.3159215915532407</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3140470885235037</v>
+        <v>-0.3114168282687766</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1586985384488745</v>
+        <v>-0.1585061770853899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.06839550470755643</v>
+        <v>-0.07155881857387957</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1628450397257404</v>
+        <v>-0.1619608618418641</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-28.10729409049307</v>
+        <v>-27.77962899257925</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-29.50020209575626</v>
+        <v>-28.92571887481941</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-25.95654860544124</v>
+        <v>-24.92097537115096</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.191384081571502</v>
+        <v>-5.685231380355755</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-9.173748346967363</v>
+        <v>-8.561412134206597</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.0991061656918</v>
+        <v>-10.51515987632426</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5029759947731587</v>
+        <v>-0.4914337569857153</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5404670870981945</v>
+        <v>-0.5312812085008866</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4860949184138875</v>
+        <v>-0.4678271786056575</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1392690266410617</v>
+        <v>-0.1279860383191028</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2110525535087314</v>
+        <v>-0.1984657387724416</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2327718793204058</v>
+        <v>-0.2250941345260004</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-20.44274103449042</v>
+        <v>-20.55559632666799</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.24128376250954</v>
+        <v>-20.08703089250022</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-19.49333598282299</v>
+        <v>-19.33807106278718</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-13.21909668842669</v>
+        <v>-12.93771296249948</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-11.00599535244063</v>
+        <v>-10.99285715821167</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-13.46703636088308</v>
+        <v>-13.46459980259325</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2795441931569492</v>
+        <v>-0.2847304397210287</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2988039161144745</v>
+        <v>-0.2983995883305258</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2774888115357678</v>
+        <v>-0.2770470268283482</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.188983395451946</v>
+        <v>-0.1869172092367919</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1738450220670197</v>
+        <v>-0.1750434639215371</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1978957020254101</v>
+        <v>-0.2002826799182426</v>
       </c>
     </row>
     <row r="40">
